--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -570,7 +570,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -578,30 +578,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="4.3828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="94.66796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="4.37890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="94.6640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="190">
   <si>
     <t>ID</t>
   </si>
@@ -525,6 +525,51 @@
   </si>
   <si>
     <t>Copia del decreto da trascrivere</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Copia integrale atto di nascita degli sposi</t>
+  </si>
+  <si>
+    <t>2000-01-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Autocertificazione cumulativa stato libero, residenza, cittadinanza</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Certificato di eseguita pubblicazione</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Atto di pubblicazione</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Richiesta rilascio atto di delega</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Atto di delegazione</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Copia atto di matrimonio trascritto</t>
   </si>
   <si>
     <t>998</t>
@@ -595,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2027,7 +2072,7 @@
         <v>172</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>8</v>
@@ -2038,19 +2083,138 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="D85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="2" t="s">
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>173</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -575,7 +575,7 @@
     <t>998</t>
   </si>
   <si>
-    <t>Allegato per caso d'uso libero</t>
+    <t>Allegato generico</t>
   </si>
   <si>
     <t>999</t>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="194">
   <si>
     <t>ID</t>
   </si>
@@ -570,6 +570,18 @@
   </si>
   <si>
     <t>Copia atto di matrimonio trascritto</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Certificato di stato di famiglia</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Certificato stesso di acquisto/riacquisto</t>
   </si>
   <si>
     <t>998</t>
@@ -640,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2191,7 +2203,7 @@
         <v>187</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>8</v>
@@ -2208,13 +2220,47 @@
         <v>189</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="206">
   <si>
     <t>ID</t>
   </si>
@@ -582,6 +582,42 @@
   </si>
   <si>
     <t>Certificato stesso di acquisto/riacquisto</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Autorizzazione del Tribunale</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita intestatario</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Sentenza del tribunale</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Atto di riconoscimento paterno</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>Istanza verbale</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Atto scritto</t>
   </si>
   <si>
     <t>998</t>
@@ -652,7 +688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2237,7 +2273,7 @@
         <v>191</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>8</v>
@@ -2254,13 +2290,115 @@
         <v>193</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -332,7 +332,7 @@
     <t>51</t>
   </si>
   <si>
-    <t>Ceritificazione come da articolo 5 del Decreto Legge n. 132/2014 convertito con Legge 10.11.2014 n.162</t>
+    <t>Certificazione come da articolo 5 del Decreto Legge n. 132/2014 convertito con Legge 10.11.2014 n.162</t>
   </si>
   <si>
     <t>52</t>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="211">
   <si>
     <t>ID</t>
   </si>
@@ -618,6 +618,21 @@
   </si>
   <si>
     <t>Atto scritto</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Attestazione di conformita'</t>
+  </si>
+  <si>
+    <t>2000-10-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Atto di dichiarazione di nascita redatto dalla direzione sanitaria</t>
   </si>
   <si>
     <t>998</t>
@@ -688,7 +703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2375,7 +2390,7 @@
         <v>203</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>8</v>
@@ -2386,19 +2401,53 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>204</v>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="213">
   <si>
     <t>ID</t>
   </si>
@@ -633,6 +633,12 @@
   </si>
   <si>
     <t>Atto di dichiarazione di nascita redatto dalla direzione sanitaria</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Processo verbale di dichiarazione di morte</t>
   </si>
   <si>
     <t>998</t>
@@ -703,7 +709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2424,13 +2430,13 @@
         <v>208</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102">
@@ -2448,6 +2454,23 @@
       </c>
       <c r="E102" s="2" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -362,13 +362,13 @@
     <t>56</t>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 1</t>
+    <t>Verbale di richiesta dell'unione civile 1</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 2</t>
+    <t>Verbale di richiesta dell'unione civile 2</t>
   </si>
   <si>
     <t>58</t>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="218">
   <si>
     <t>ID</t>
   </si>
@@ -639,6 +639,21 @@
   </si>
   <si>
     <t>Processo verbale di dichiarazione di morte</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Provvedimento di rifiuto</t>
+  </si>
+  <si>
+    <t>2024-05-29 00:00:00.0</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Nullaosta di cui all'art. 116 o documentazione equivalente</t>
   </si>
   <si>
     <t>998</t>
@@ -709,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2447,7 +2462,7 @@
         <v>210</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>8</v>
@@ -2458,19 +2473,53 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>211</v>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="220">
   <si>
     <t>ID</t>
   </si>
@@ -206,7 +206,7 @@
     <t>30</t>
   </si>
   <si>
-    <t>Decreto Prefettizio</t>
+    <t>Decreto Prefettizio / Sentenza</t>
   </si>
   <si>
     <t>31</t>
@@ -654,6 +654,12 @@
   </si>
   <si>
     <t>Nullaosta di cui all'art. 116 o documentazione equivalente</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Verbale di pubblicazione</t>
   </si>
   <si>
     <t>998</t>
@@ -724,7 +730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2496,7 +2502,7 @@
         <v>215</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>8</v>
@@ -2520,6 +2526,23 @@
       </c>
       <c r="E105" s="2" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -98,7 +98,7 @@
     <t>11</t>
   </si>
   <si>
-    <t>Provvedimento di autorizzazione del giudico per figlio incestuoso</t>
+    <t>Provvedimento di autorizzazione del giudice per figlio incestuoso</t>
   </si>
   <si>
     <t>12</t>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="222">
   <si>
     <t>ID</t>
   </si>
@@ -660,6 +660,12 @@
   </si>
   <si>
     <t>Verbale di pubblicazione</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Processo Verbale (Redatto in luogo particolare da autorità incaricata)</t>
   </si>
   <si>
     <t>998</t>
@@ -730,7 +736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2519,7 +2525,7 @@
         <v>217</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>8</v>
@@ -2543,6 +2549,23 @@
       </c>
       <c r="E106" s="2" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="226">
   <si>
     <t>ID</t>
   </si>
@@ -666,6 +666,18 @@
   </si>
   <si>
     <t>Processo Verbale (Redatto in luogo particolare da autorità incaricata)</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Documenti utilizzati per la pubblicazione</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Certificato medico</t>
   </si>
   <si>
     <t>998</t>
@@ -736,7 +748,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2542,7 +2554,7 @@
         <v>219</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>8</v>
@@ -2559,13 +2571,47 @@
         <v>221</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="228">
   <si>
     <t>ID</t>
   </si>
@@ -678,6 +678,12 @@
   </si>
   <si>
     <t>Certificato medico</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Negoziazione assistita e nulla osta o autorizzazione</t>
   </si>
   <si>
     <t>998</t>
@@ -748,7 +754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2588,7 +2594,7 @@
         <v>223</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>8</v>
@@ -2612,6 +2618,23 @@
       </c>
       <c r="E109" s="2" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="230">
   <si>
     <t>ID</t>
   </si>
@@ -684,6 +684,12 @@
   </si>
   <si>
     <t>Negoziazione assistita e nulla osta o autorizzazione</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Certificato di cui all’art.36 del Regolamento (UE) N. 2019/1111</t>
   </si>
   <si>
     <t>998</t>
@@ -754,7 +760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2611,7 +2617,7 @@
         <v>225</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>8</v>
@@ -2635,6 +2641,23 @@
       </c>
       <c r="E110" s="2" t="s">
         <v>226</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="232">
   <si>
     <t>ID</t>
   </si>
@@ -690,6 +690,12 @@
   </si>
   <si>
     <t>Certificato di cui all’art.36 del Regolamento (UE) N. 2019/1111</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Sentenza di riconoscimento giudiziale della cittadinanza italiana</t>
   </si>
   <si>
     <t>998</t>
@@ -760,7 +766,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2634,7 +2640,7 @@
         <v>227</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>8</v>
@@ -2658,6 +2664,23 @@
       </c>
       <c r="E111" s="2" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="239">
   <si>
     <t>ID</t>
   </si>
@@ -690,6 +690,27 @@
   </si>
   <si>
     <t>Certificato di cui all’art.36 del Regolamento (UE) N. 2019/1111</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Atto di di costituzione di unione civile straniero, tradotto e legalizzato</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Copia autenticata dell'accordo</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Provvedimento dell'autorità giudiziaria</t>
   </si>
   <si>
     <t>113</t>
@@ -766,7 +787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2640,7 +2661,7 @@
         <v>227</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>8</v>
@@ -2651,36 +2672,87 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="D111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>230</v>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="241">
   <si>
     <t>ID</t>
   </si>
@@ -717,6 +717,12 @@
   </si>
   <si>
     <t>Sentenza di riconoscimento giudiziale della cittadinanza italiana</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Copia dell'atto di cittadinanza che contiene l'esito di accertamento rilasciato dal consolato</t>
   </si>
   <si>
     <t>998</t>
@@ -787,7 +793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2729,7 +2735,7 @@
         <v>236</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>8</v>
@@ -2753,6 +2759,23 @@
       </c>
       <c r="E115" s="2" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -689,7 +689,7 @@
     <t>109</t>
   </si>
   <si>
-    <t>Certificato di cui all’art.36 del Regolamento (UE) N. 2019/1111</t>
+    <t>Certificato di cui all'art.36 o 66 del Regolamento (UE) N. 2019/1111</t>
   </si>
   <si>
     <t>110</t>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="243">
   <si>
     <t>ID</t>
   </si>
@@ -723,6 +723,12 @@
   </si>
   <si>
     <t>Copia dell'atto di cittadinanza che contiene l'esito di accertamento rilasciato dal consolato</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Atto di costituzione e traduzione</t>
   </si>
   <si>
     <t>998</t>
@@ -793,7 +799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2752,7 +2758,7 @@
         <v>238</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>8</v>
@@ -2776,6 +2782,23 @@
       </c>
       <c r="E116" s="2" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="251">
   <si>
     <t>ID</t>
   </si>
@@ -116,7 +116,7 @@
     <t>14</t>
   </si>
   <si>
-    <t>Copia dell'atto di assenso del figlio</t>
+    <t>Copia dell'atto di dichiarazione/assenso del figlio</t>
   </si>
   <si>
     <t>15</t>
@@ -729,6 +729,30 @@
   </si>
   <si>
     <t>Atto di costituzione e traduzione</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Copia sentenza/decreto</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Atto di pre-riconoscimento dell'altro genitore</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Provvedimento di riconoscimento della sentenza straniera</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>Certificato di cittadinanza straniera o Riconoscimento dello status di apolide del minore</t>
   </si>
   <si>
     <t>998</t>
@@ -799,7 +823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2775,7 +2799,7 @@
         <v>240</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>8</v>
@@ -2792,13 +2816,81 @@
         <v>242</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="259">
   <si>
     <t>ID</t>
   </si>
@@ -734,7 +734,7 @@
     <t>116</t>
   </si>
   <si>
-    <t>Copia sentenza/decreto</t>
+    <t>Sentenza o decreto cittadinanza jure sanguinis</t>
   </si>
   <si>
     <t>117</t>
@@ -753,6 +753,30 @@
   </si>
   <si>
     <t>Certificato di cittadinanza straniera o Riconoscimento dello status di apolide del minore</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Provvedimento di adozione</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Documentazione comprovante la qualita' di tutore</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Documentazione comprovante la condizione di unico genitore del minore</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Ricevuta del pagamento</t>
   </si>
   <si>
     <t>998</t>
@@ -823,7 +847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2867,7 +2891,7 @@
         <v>248</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>8</v>
@@ -2884,13 +2908,81 @@
         <v>250</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -734,7 +734,7 @@
     <t>116</t>
   </si>
   <si>
-    <t>Sentenza o decreto cittadinanza jure sanguinis</t>
+    <t>Provvedimento di cittadinanza jure sanguinis</t>
   </si>
   <si>
     <t>117</t>
